--- a/ScenarioTestDocs_WEB-12072022.xlsx
+++ b/ScenarioTestDocs_WEB-12072022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
   <si>
     <t>Created By</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>passed</t>
-  </si>
-  <si>
-    <t>BU_008</t>
   </si>
   <si>
     <t>BU_009</t>
@@ -475,60 +472,6 @@
   </si>
   <si>
     <t>Value must be greater than or equal to one</t>
-  </si>
-  <si>
-    <t>ORDER</t>
-  </si>
-  <si>
-    <r>
-      <t>Required (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">BU_006) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Verify order</t>
-    </r>
-  </si>
-  <si>
-    <t>3. Fill checkout form</t>
-  </si>
-  <si>
-    <t>all item in cart</t>
-  </si>
-  <si>
-    <t>2. Procceed to checkout</t>
-  </si>
-  <si>
-    <t>Checkout page show</t>
-  </si>
-  <si>
-    <t>form data</t>
-  </si>
-  <si>
-    <t>redirect to payment page</t>
-  </si>
-  <si>
-    <t>Order success, redirect to order details</t>
-  </si>
-  <si>
-    <t>4. Click Place Order</t>
-  </si>
-  <si>
-    <t>5. Click Simulasi pembayaran</t>
   </si>
   <si>
     <t>NEWSLETTER</t>
@@ -1289,7 +1232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1336,9 +1279,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1477,76 +1417,113 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1554,42 +1531,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1600,37 +1552,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1847,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB955"/>
+  <dimension ref="A1:AB950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1871,20 +1805,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="91"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1937,22 +1871,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="120" t="s">
-        <v>94</v>
+      <c r="B3" s="91"/>
+      <c r="C3" s="64" t="s">
+        <v>82</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="96">
+      <c r="F3" s="91"/>
+      <c r="G3" s="106">
         <v>44754</v>
       </c>
-      <c r="H3" s="92"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2005,15 +1939,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="94"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="100" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2051,7 +1985,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="86"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="10">
         <v>8</v>
       </c>
@@ -2113,29 +2047,29 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="115"/>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="102"/>
+      <c r="F8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2"/>
@@ -2159,27 +2093,27 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="39"/>
+      <c r="B9" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="95"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="38"/>
       <c r="J9" s="2"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -2201,21 +2135,21 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="39"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="99"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="38"/>
       <c r="J10" s="2"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
@@ -2237,19 +2171,19 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="99"/>
+      <c r="F11" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="2"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -2271,21 +2205,21 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="99"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="37" t="s">
+      <c r="A12" s="107"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="93"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="39" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="2"/>
@@ -2309,25 +2243,25 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="39"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="95"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="38"/>
       <c r="J13" s="2"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -2349,21 +2283,21 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="39"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="99"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="38"/>
       <c r="J14" s="2"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -2385,19 +2319,19 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="99"/>
+      <c r="F15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="2"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2419,21 +2353,21 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="40" t="s">
+      <c r="A16" s="107"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="93"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="39" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="2"/>
@@ -2457,27 +2391,27 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="60"/>
+      <c r="C17" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="95"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="59"/>
       <c r="J17" s="2"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -2499,23 +2433,23 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="60"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="99"/>
+      <c r="F18" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="59"/>
       <c r="J18" s="2"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -2537,17 +2471,17 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="60"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="99"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="2"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -2569,22 +2503,22 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="37" t="s">
+      <c r="A20" s="97"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="93"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="62" t="s">
         <v>52</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="118" t="s">
-        <v>53</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="12"/>
@@ -2607,25 +2541,25 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="60"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="95"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="59"/>
       <c r="J21" s="2"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -2647,23 +2581,23 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="31" t="s">
+      <c r="A22" s="97"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="99"/>
+      <c r="F22" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="60"/>
+      <c r="H22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="59"/>
       <c r="J22" s="2"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -2685,17 +2619,17 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="98"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="60"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="99"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="59"/>
       <c r="J23" s="2"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
@@ -2717,21 +2651,21 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="98"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="59" t="s">
+      <c r="A24" s="97"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="93"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="58" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="2"/>
@@ -2755,27 +2689,27 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="61"/>
+      <c r="B25" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="95"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="60"/>
       <c r="J25" s="2"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -2797,21 +2731,21 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="78" t="s">
+      <c r="A26" s="86"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="99"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="46"/>
+      <c r="H26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="45"/>
       <c r="J26" s="2"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -2833,22 +2767,22 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="111"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="17" t="s">
+      <c r="A27" s="86"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="74"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="118" t="s">
-        <v>53</v>
+      <c r="I27" s="62" t="s">
+        <v>52</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="4"/>
@@ -2871,15 +2805,15 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="112"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="19"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="62"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="2"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -2901,27 +2835,27 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="77"/>
+      <c r="B29" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="95"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="46"/>
+      <c r="G29" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="45"/>
       <c r="J29" s="2"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -2943,21 +2877,21 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="68" t="s">
+      <c r="A30" s="66"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="73"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="46"/>
+      <c r="H30" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="45"/>
       <c r="J30" s="2"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2979,19 +2913,19 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="85"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="69"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="73"/>
       <c r="F31" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="45"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="46"/>
+        <v>68</v>
+      </c>
+      <c r="G31" s="44"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="2"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -3013,21 +2947,21 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="85"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="68" t="s">
+      <c r="A32" s="66"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="74"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="90"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="I32" s="46" t="s">
+      <c r="H32" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="45" t="s">
         <v>6</v>
       </c>
       <c r="J32" s="2"/>
@@ -3051,15 +2985,15 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="86"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="62"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="61"/>
       <c r="J33" s="2"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -3081,25 +3015,25 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="95"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="46"/>
+      <c r="G34" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="45"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3121,21 +3055,21 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="85"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="69"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="73"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="46"/>
+      <c r="G35" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="45"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3157,19 +3091,19 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="69"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="73"/>
       <c r="F36" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="46"/>
+        <v>69</v>
+      </c>
+      <c r="G36" s="44"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3191,21 +3125,21 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="90"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="46" t="s">
+      <c r="A37" s="66"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="74"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="45" t="s">
         <v>6</v>
       </c>
       <c r="J37" s="3"/>
@@ -3229,15 +3163,15 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="86"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="62"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="61"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3259,27 +3193,27 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="65" t="s">
+      <c r="B39" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="46"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="60"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3301,23 +3235,19 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="68" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="73"/>
+      <c r="F40" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="105"/>
-      <c r="F40" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="46"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="47"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3339,19 +3269,23 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="105"/>
-      <c r="F41" s="15" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="73"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="46"/>
+      <c r="H41" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3373,21 +3307,25 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="90"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I42" s="46"/>
+      <c r="A42" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="78"/>
+      <c r="C42" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="115"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="45"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3409,23 +3347,19 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="116"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="82"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I43" s="62" t="s">
-        <v>6</v>
-      </c>
+      <c r="A43" s="65"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="73"/>
+      <c r="F43" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="42"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="47"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3447,27 +3381,23 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="61"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="117"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -3489,19 +3419,15 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="69"/>
-      <c r="F45" s="119" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="48"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3523,23 +3449,15 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="69"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="H46" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>6</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3561,25 +3479,15 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="73"/>
-      <c r="C47" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="84"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="46"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3601,19 +3509,15 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="69"/>
-      <c r="F48" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="48"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3635,23 +3539,15 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="64"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="71"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>6</v>
-      </c>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -7062,155 +6958,155 @@
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
     </row>
-    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
-      <c r="L163" s="3"/>
-      <c r="M163" s="3"/>
-      <c r="N163" s="3"/>
-      <c r="O163" s="3"/>
-      <c r="P163" s="3"/>
-      <c r="Q163" s="3"/>
-      <c r="R163" s="3"/>
-      <c r="S163" s="3"/>
-      <c r="T163" s="3"/>
-      <c r="U163" s="3"/>
-      <c r="V163" s="3"/>
-      <c r="W163" s="3"/>
-      <c r="X163" s="3"/>
-      <c r="Y163" s="3"/>
-      <c r="Z163" s="3"/>
-      <c r="AA163" s="3"/>
-      <c r="AB163" s="3"/>
-    </row>
-    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
-      <c r="L164" s="3"/>
-      <c r="M164" s="3"/>
-      <c r="N164" s="3"/>
-      <c r="O164" s="3"/>
-      <c r="P164" s="3"/>
-      <c r="Q164" s="3"/>
-      <c r="R164" s="3"/>
-      <c r="S164" s="3"/>
-      <c r="T164" s="3"/>
-      <c r="U164" s="3"/>
-      <c r="V164" s="3"/>
-      <c r="W164" s="3"/>
-      <c r="X164" s="3"/>
-      <c r="Y164" s="3"/>
-      <c r="Z164" s="3"/>
-      <c r="AA164" s="3"/>
-      <c r="AB164" s="3"/>
-    </row>
-    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
-      <c r="O165" s="3"/>
-      <c r="P165" s="3"/>
-      <c r="Q165" s="3"/>
-      <c r="R165" s="3"/>
-      <c r="S165" s="3"/>
-      <c r="T165" s="3"/>
-      <c r="U165" s="3"/>
-      <c r="V165" s="3"/>
-      <c r="W165" s="3"/>
-      <c r="X165" s="3"/>
-      <c r="Y165" s="3"/>
-      <c r="Z165" s="3"/>
-      <c r="AA165" s="3"/>
-      <c r="AB165" s="3"/>
-    </row>
-    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3"/>
-      <c r="N166" s="3"/>
-      <c r="O166" s="3"/>
-      <c r="P166" s="3"/>
-      <c r="Q166" s="3"/>
-      <c r="R166" s="3"/>
-      <c r="S166" s="3"/>
-      <c r="T166" s="3"/>
-      <c r="U166" s="3"/>
-      <c r="V166" s="3"/>
-      <c r="W166" s="3"/>
-      <c r="X166" s="3"/>
-      <c r="Y166" s="3"/>
-      <c r="Z166" s="3"/>
-      <c r="AA166" s="3"/>
-      <c r="AB166" s="3"/>
-    </row>
-    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
-      <c r="L167" s="3"/>
-      <c r="M167" s="3"/>
-      <c r="N167" s="3"/>
-      <c r="O167" s="3"/>
-      <c r="P167" s="3"/>
-      <c r="Q167" s="3"/>
-      <c r="R167" s="3"/>
-      <c r="S167" s="3"/>
-      <c r="T167" s="3"/>
-      <c r="U167" s="3"/>
-      <c r="V167" s="3"/>
-      <c r="W167" s="3"/>
-      <c r="X167" s="3"/>
-      <c r="Y167" s="3"/>
-      <c r="Z167" s="3"/>
-      <c r="AA167" s="3"/>
-      <c r="AB167" s="3"/>
+    <row r="163" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2"/>
+      <c r="V163" s="2"/>
+      <c r="W163" s="2"/>
+      <c r="X163" s="2"/>
+      <c r="Y163" s="2"/>
+      <c r="Z163" s="2"/>
+      <c r="AA163" s="2"/>
+      <c r="AB163" s="2"/>
+    </row>
+    <row r="164" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="2"/>
+      <c r="X164" s="2"/>
+      <c r="Y164" s="2"/>
+      <c r="Z164" s="2"/>
+      <c r="AA164" s="2"/>
+      <c r="AB164" s="2"/>
+    </row>
+    <row r="165" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2"/>
+      <c r="V165" s="2"/>
+      <c r="W165" s="2"/>
+      <c r="X165" s="2"/>
+      <c r="Y165" s="2"/>
+      <c r="Z165" s="2"/>
+      <c r="AA165" s="2"/>
+      <c r="AB165" s="2"/>
+    </row>
+    <row r="166" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2"/>
+      <c r="V166" s="2"/>
+      <c r="W166" s="2"/>
+      <c r="X166" s="2"/>
+      <c r="Y166" s="2"/>
+      <c r="Z166" s="2"/>
+      <c r="AA166" s="2"/>
+      <c r="AB166" s="2"/>
+    </row>
+    <row r="167" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2"/>
+      <c r="V167" s="2"/>
+      <c r="W167" s="2"/>
+      <c r="X167" s="2"/>
+      <c r="Y167" s="2"/>
+      <c r="Z167" s="2"/>
+      <c r="AA167" s="2"/>
+      <c r="AB167" s="2"/>
     </row>
     <row r="168" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
@@ -7302,156 +7198,11 @@
       <c r="AA170" s="2"/>
       <c r="AB170" s="2"/>
     </row>
-    <row r="171" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
-      <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
-      <c r="AA171" s="2"/>
-      <c r="AB171" s="2"/>
-    </row>
-    <row r="172" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
-      <c r="V172" s="2"/>
-      <c r="W172" s="2"/>
-      <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
-      <c r="AA172" s="2"/>
-      <c r="AB172" s="2"/>
-    </row>
-    <row r="173" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2"/>
-      <c r="V173" s="2"/>
-      <c r="W173" s="2"/>
-      <c r="X173" s="2"/>
-      <c r="Y173" s="2"/>
-      <c r="Z173" s="2"/>
-      <c r="AA173" s="2"/>
-      <c r="AB173" s="2"/>
-    </row>
-    <row r="174" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2"/>
-      <c r="V174" s="2"/>
-      <c r="W174" s="2"/>
-      <c r="X174" s="2"/>
-      <c r="Y174" s="2"/>
-      <c r="Z174" s="2"/>
-      <c r="AA174" s="2"/>
-      <c r="AB174" s="2"/>
-    </row>
-    <row r="175" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="2"/>
-      <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2"/>
-      <c r="V175" s="2"/>
-      <c r="W175" s="2"/>
-      <c r="X175" s="2"/>
-      <c r="Y175" s="2"/>
-      <c r="Z175" s="2"/>
-      <c r="AA175" s="2"/>
-      <c r="AB175" s="2"/>
-    </row>
+    <row r="171" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="176" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8227,35 +7978,28 @@
     <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D23:E23"/>
+  <mergeCells count="68">
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E3:F3"/>
@@ -8272,15 +8016,29 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B29:B38"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="D34:E34"/>
@@ -8290,29 +8048,9 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:B49"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F45" r:id="rId1"/>
+    <hyperlink ref="F40" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId2"/>

--- a/ScenarioTestDocs_WEB-12072022.xlsx
+++ b/ScenarioTestDocs_WEB-12072022.xlsx
@@ -135,10 +135,6 @@
     <t>4. Tap Register</t>
   </si>
   <si>
-    <t>username = leon5
-email = leon5@gmail.com                       phone = 34634542                     password = Chan1234                            confirm password = Chan1234                        address = Jl. Kotaki no.90</t>
-  </si>
-  <si>
     <t>username = leon6
 email = leon6@gmail.com                       phone = 34634542                     password = Chan1234                            confirm password = chan1234                        address = Jl. Kotaki no.90</t>
   </si>
@@ -176,30 +172,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> with unregistered user</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Verify </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>register</t>
     </r>
   </si>
   <si>
@@ -255,12 +227,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">username = leon5           password = Chan1234         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">username = leon6               password = Chan1234    </t>
-  </si>
-  <si>
     <t>login form</t>
   </si>
   <si>
@@ -459,9 +425,6 @@
     </r>
   </si>
   <si>
-    <t>Product Album: 1,                 Product Beanie: 1</t>
-  </si>
-  <si>
     <t>Product Album: -1,                 Product Beanie: -1</t>
   </si>
   <si>
@@ -588,6 +551,52 @@
   </si>
   <si>
     <t>Login success, But still display login and register in home page</t>
+  </si>
+  <si>
+    <t>Product Album: 4,                 Product Beanie: 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username = chan001           password = Chan1234         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">username = leon2326               password = Chan1234    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Verify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>with valid input</t>
+    </r>
+  </si>
+  <si>
+    <t>username = chan001
+email = chan001@gmail.com                       phone = 34634542                     password = Chan1234                            confirm password = Chan1234                        address = Jl. Kotaki no.90</t>
   </si>
 </sst>
 </file>
@@ -1426,145 +1435,145 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1783,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1805,20 +1814,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="81"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="96"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1871,22 +1880,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="91"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="106">
+      <c r="F3" s="81"/>
+      <c r="G3" s="99">
         <v>44754</v>
       </c>
-      <c r="H3" s="104"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1939,15 +1948,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="91"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="106" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1985,7 +1994,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="67"/>
+      <c r="E6" s="107"/>
       <c r="F6" s="10">
         <v>8</v>
       </c>
@@ -2056,10 +2065,10 @@
       <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="102"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="28" t="s">
         <v>13</v>
       </c>
@@ -2093,19 +2102,19 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="94" t="s">
+      <c r="B9" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="95"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="20"/>
       <c r="G9" s="33" t="s">
         <v>35</v>
@@ -2135,13 +2144,13 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="97"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="98" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="99"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="20"/>
       <c r="G10" s="34" t="s">
         <v>36</v>
@@ -2171,15 +2180,15 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="97"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="98" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="30" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="37"/>
@@ -2205,13 +2214,13 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="92" t="s">
+      <c r="A12" s="101"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="26"/>
       <c r="G12" s="36" t="s">
         <v>27</v>
@@ -2243,17 +2252,17 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="94" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="95"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="20"/>
       <c r="G13" s="33" t="s">
         <v>35</v>
@@ -2283,13 +2292,13 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="98" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="99"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="20"/>
       <c r="G14" s="34" t="s">
         <v>36</v>
@@ -2319,15 +2328,15 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="98" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="99"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="37"/>
@@ -2353,19 +2362,19 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="107"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="92" t="s">
+      <c r="A16" s="101"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="93"/>
+      <c r="E16" s="94"/>
       <c r="F16" s="32"/>
       <c r="G16" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="39" t="s">
         <v>29</v>
@@ -2391,19 +2400,19 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="94" t="s">
+      <c r="C17" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="95"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="40"/>
       <c r="G17" s="33" t="s">
         <v>35</v>
@@ -2433,21 +2442,21 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="97"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="99"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="92"/>
       <c r="F18" s="30" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I18" s="59"/>
       <c r="J18" s="2"/>
@@ -2471,13 +2480,13 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="97"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="99"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="92"/>
       <c r="F19" s="30"/>
       <c r="G19" s="35"/>
       <c r="H19" s="40"/>
@@ -2503,22 +2512,22 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="97"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="93"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="94"/>
       <c r="F20" s="41"/>
       <c r="G20" s="36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="12"/>
@@ -2541,17 +2550,17 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="94" t="s">
+      <c r="B21" s="105"/>
+      <c r="C21" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="95"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="20"/>
       <c r="G21" s="33" t="s">
         <v>35</v>
@@ -2581,21 +2590,21 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="97"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="99"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="92"/>
       <c r="F22" s="30" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="2"/>
@@ -2619,13 +2628,13 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="97"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="99"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="92"/>
       <c r="F23" s="30"/>
       <c r="G23" s="35"/>
       <c r="H23" s="40"/>
@@ -2651,19 +2660,19 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="97"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="93"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="94"/>
       <c r="F24" s="32"/>
       <c r="G24" s="36" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I24" s="58" t="s">
         <v>29</v>
@@ -2689,19 +2698,19 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="94" t="s">
+      <c r="B25" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="95"/>
+      <c r="E25" s="90"/>
       <c r="F25" s="29"/>
       <c r="G25" s="33" t="s">
         <v>35</v>
@@ -2731,19 +2740,19 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="86"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="99"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="92"/>
       <c r="F26" s="19"/>
       <c r="G26" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I26" s="45"/>
       <c r="J26" s="2"/>
@@ -2767,22 +2776,22 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="86"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="74"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="86"/>
       <c r="F27" s="30"/>
       <c r="G27" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I27" s="62" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="4"/>
@@ -2805,11 +2814,11 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="87"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
       <c r="F28" s="31"/>
       <c r="G28" s="18"/>
       <c r="H28" s="13"/>
@@ -2835,19 +2844,19 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="94" t="s">
+      <c r="B29" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="95"/>
+      <c r="E29" s="90"/>
       <c r="F29" s="14"/>
       <c r="G29" s="33" t="s">
         <v>35</v>
@@ -2877,19 +2886,19 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="73"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="69"/>
       <c r="F30" s="14"/>
       <c r="G30" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="2"/>
@@ -2913,15 +2922,15 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="73"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="69"/>
       <c r="F31" s="15" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="48"/>
@@ -2947,19 +2956,19 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="66"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="74"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="86"/>
       <c r="F32" s="16"/>
       <c r="G32" s="44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I32" s="45" t="s">
         <v>6</v>
@@ -2985,11 +2994,11 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="76"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="117"/>
       <c r="F33" s="17"/>
       <c r="G33" s="46"/>
       <c r="H33" s="55"/>
@@ -3015,17 +3024,17 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="94" t="s">
+      <c r="B34" s="66"/>
+      <c r="C34" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="95"/>
+      <c r="E34" s="90"/>
       <c r="F34" s="14"/>
       <c r="G34" s="33" t="s">
         <v>35</v>
@@ -3055,19 +3064,19 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="66"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="73"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="69"/>
       <c r="F35" s="14"/>
       <c r="G35" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I35" s="45"/>
       <c r="J35" s="3"/>
@@ -3091,15 +3100,15 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="66"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="73"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="69"/>
       <c r="F36" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G36" s="44"/>
       <c r="H36" s="48"/>
@@ -3125,19 +3134,19 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="66"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="74"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="86"/>
       <c r="F37" s="16"/>
       <c r="G37" s="44" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I37" s="45" t="s">
         <v>6</v>
@@ -3163,11 +3172,11 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="67"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="76"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="117"/>
       <c r="F38" s="17"/>
       <c r="G38" s="46"/>
       <c r="H38" s="55"/>
@@ -3193,19 +3202,19 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="114" t="s">
+      <c r="B39" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="115"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="53"/>
       <c r="G39" s="54" t="s">
         <v>26</v>
@@ -3235,15 +3244,15 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="73"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="69"/>
       <c r="F40" s="63" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G40" s="50"/>
       <c r="H40" s="30"/>
@@ -3269,19 +3278,19 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="65"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="73"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="69"/>
       <c r="F41" s="51"/>
       <c r="G41" s="51" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H41" s="51" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I41" s="17" t="s">
         <v>6</v>
@@ -3307,17 +3316,17 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="113" t="s">
+      <c r="A42" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="114" t="s">
+      <c r="B42" s="66"/>
+      <c r="C42" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="115"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="14"/>
       <c r="G42" s="49" t="s">
         <v>26</v>
@@ -3347,15 +3356,15 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="73"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="69"/>
       <c r="F43" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G43" s="42"/>
       <c r="H43" s="30"/>
@@ -3381,19 +3390,19 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="116"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="117"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="79"/>
       <c r="F44" s="51"/>
       <c r="G44" s="52" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H44" s="52" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>6</v>
@@ -7980,26 +7989,35 @@
     <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="C25:C28"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E3:F3"/>
@@ -8016,38 +8034,29 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="C25:C28"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F40" r:id="rId1"/>
